--- a/temp_ideal.xlsx
+++ b/temp_ideal.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84D9D1A-90BA-4978-B448-32E02BE85F17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +51,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,258 +341,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.5346520281199504E-2</v>
-      </c>
-      <c r="B2">
-        <v>1.0001177647766419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.0689426003332715E-2</v>
-      </c>
-      <c r="B3">
-        <v>1.0004710313694825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.6025103458668823E-2</v>
-      </c>
-      <c r="B4">
-        <v>1.0010597165737991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6.1349940641947459E-2</v>
-      </c>
-      <c r="B5">
-        <v>1.0018836817368282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7.6660328101112729E-2</v>
-      </c>
-      <c r="B6">
-        <v>1.002942732790423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9.1952659787445726E-2</v>
-      </c>
-      <c r="B7">
-        <v>1.0042366202967623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.1072233339048957</v>
-      </c>
-      <c r="B8">
-        <v>1.0057650395070996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.12246875375840947</v>
-      </c>
-      <c r="B9">
-        <v>1.007527630433541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.13768532860105928</v>
-      </c>
-      <c r="B10">
-        <v>1.0095239779338328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.15286947447976995</v>
-      </c>
-      <c r="B11">
-        <v>1.0117536118091404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.16801761507944563</v>
-      </c>
-      <c r="B12">
-        <v>1.014216006914793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.18312618256529789</v>
-      </c>
-      <c r="B13">
-        <v>1.0169105832839715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.19819161842317592</v>
-      </c>
-      <c r="B14">
-        <v>1.019836706264307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.21321037429770209</v>
-      </c>
-      <c r="B15">
-        <v>1.0229936866673615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.2281789128280145</v>
-      </c>
-      <c r="B16">
-        <v>1.0263807809309506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1.1678464900291767</v>
-      </c>
-      <c r="B17">
-        <v>1.2390095993004622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.6779762346734746</v>
-      </c>
-      <c r="B18">
-        <v>1.3462401595620337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.9460349632336307</v>
-      </c>
-      <c r="B19">
-        <v>1.3983045547191941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.1931957774041044</v>
-      </c>
-      <c r="B20">
-        <v>1.4423850865018588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2.4322689603922218</v>
-      </c>
-      <c r="B21">
-        <v>1.481247455900208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2.6693737921360086</v>
-      </c>
-      <c r="B22">
-        <v>1.5160638340539685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2.9080800699001959</v>
-      </c>
-      <c r="B23">
-        <v>1.5473810447828151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3.1507759039024807</v>
-      </c>
-      <c r="B24">
-        <v>1.5754401916615384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3.3992337712528684</v>
-      </c>
-      <c r="B25">
-        <v>1.6003079725137153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3.6548818959648894</v>
-      </c>
-      <c r="B26">
-        <v>1.6219384158868195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3.9189489699116531</v>
-      </c>
-      <c r="B27">
-        <v>1.6402044796052559</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4.1925480306393892</v>
-      </c>
-      <c r="B28">
-        <v>1.6549149846488669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4.4767285866453053</v>
-      </c>
-      <c r="B29">
-        <v>1.6658237227311805</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4.7725110887579012</v>
-      </c>
-      <c r="B30">
-        <v>1.6726340413654435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5.0809110994849256</v>
-      </c>
-      <c r="B31">
-        <v>1.6750006142245777</v>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>0.0085506547432825097</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1.0000914025637093</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>0.01709740172774037</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1.0003655684826942</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>0.025636334980444812</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1.0008223724596148</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>0.034163552099442634</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.0014616057291987</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
+        <v>0.042675156037203926</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.0022829761536474</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
+        <v>0.051167256881622727</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.0032861083561477</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
+        <v>0.05963597363375675</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.0044705438924253</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
+        <v>0.068077435981493642</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1.0058357414602566</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
+        <v>0.076487786068333202</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1.0073810771468537</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
+        <v>0.08486318025647728</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1.0091058447139984</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
+        <v>0.093199790883421521</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1.0110092559208042</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
+        <v>0.10149380801124612</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.0130904408839498</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
+        <v>0.10974144116780649</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1.0153484484752298</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
+        <v>0.11793892107902736</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1.0177822467562305</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="0">
+        <v>0.12608250139150959</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1.0203907234499399</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="0">
+        <v>1.358835575686522</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1.4152548421801532</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="0">
+        <v>2.0337024901156648</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1.6156200707662771</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="0">
+        <v>2.40361086297608</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1.7168922658483885</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="0">
+        <v>2.7622156740931523</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1.8068755548995805</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="0">
+        <v>3.1251479994076363</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1.8897401009637651</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="0">
+        <v>3.5006619628723863</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1.9670707066218069</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="0">
+        <v>3.8943237027305928</v>
+      </c>
+      <c r="B23" s="0">
+        <v>2.0394029554306492</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="0">
+        <v>4.3105678241748242</v>
+      </c>
+      <c r="B24" s="0">
+        <v>2.1067201380242686</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="0">
+        <v>4.7533533532535923</v>
+      </c>
+      <c r="B25" s="0">
+        <v>2.1686481645411697</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="0">
+        <v>5.2264917968377889</v>
+      </c>
+      <c r="B26" s="0">
+        <v>2.2245377986488779</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="0">
+        <v>5.7338368277238771</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2.2734966325429267</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="0">
+        <v>6.2794099681421951</v>
+      </c>
+      <c r="B28" s="0">
+        <v>2.3143949112521351</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="0">
+        <v>6.867495418677608</v>
+      </c>
+      <c r="B29" s="0">
+        <v>2.345855488893815</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="0">
+        <v>7.502720449432779</v>
+      </c>
+      <c r="B30" s="0">
+        <v>2.3662324878427503</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="0">
+        <v>8.1901303258087577</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2.3735805830361909</v>
       </c>
     </row>
   </sheetData>
